--- a/server-res/excel/Cfg_BornPos.xlsx
+++ b/server-res/excel/Cfg_BornPos.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,13 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
-  <si>
-    <t>uint32</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>memo</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,17 +43,13 @@
   </si>
   <si>
     <t>posy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>uint32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -108,6 +98,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -155,7 +148,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -190,7 +183,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -399,32 +392,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -435,44 +428,44 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>101</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
         <v>101</v>
@@ -489,10 +482,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>101</v>
@@ -504,26 +497,6 @@
         <v>50</v>
       </c>
       <c r="F5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>101</v>
-      </c>
-      <c r="D6">
-        <v>50</v>
-      </c>
-      <c r="E6">
-        <v>50</v>
-      </c>
-      <c r="F6">
         <v>2</v>
       </c>
     </row>

--- a/server-res/excel/Cfg_BornPos.xlsx
+++ b/server-res/excel/Cfg_BornPos.xlsx
@@ -16,11 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
-  <si>
-    <t>memo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +39,26 @@
   </si>
   <si>
     <t>posy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -395,49 +411,46 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
